--- a/src/test/Resourses/TestData/Book1.xlsx
+++ b/src/test/Resourses/TestData/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAHARAJ\IdeaProjects\NopcommercePageObject\src\test\Resourses\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD04AB-2738-4D1A-A8ED-1FCF4F5ADAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9338A-14DA-4D55-B83D-E4B03A43D68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5E285C8-2275-4A17-B86E-3155C5A71F5E}"/>
   </bookViews>
